--- a/wps_pineanddine.xlsx
+++ b/wps_pineanddine.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20201348\Documents\hamk_wd\pineanddine_hamk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A79C4C-C8D1-4F0A-99A0-93601962BB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ListOfFeatures" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="sprint1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="sprint2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="sprint3" sheetId="4" r:id="rId7"/>
+    <sheet name="ListOfFeatures" sheetId="1" r:id="rId1"/>
+    <sheet name="sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="sprint2" sheetId="3" r:id="rId3"/>
+    <sheet name="sprint3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgpVyw00TNBvANMoDIZZu8B1l23Og=="/>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t xml:space="preserve">Product Backlog - Pine &amp; Dine </t>
   </si>
@@ -132,37 +141,7 @@
     <t>STORY POINTS</t>
   </si>
   <si>
-    <t>User Story #1</t>
-  </si>
-  <si>
-    <t>Task : Make a list of categories of products</t>
-  </si>
-  <si>
-    <t>Pekka</t>
-  </si>
-  <si>
     <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Task : List products based on categories</t>
-  </si>
-  <si>
-    <t>Juha</t>
-  </si>
-  <si>
-    <t>Task : Search products</t>
-  </si>
-  <si>
-    <t>Johanna</t>
-  </si>
-  <si>
-    <t>Task: Display products</t>
-  </si>
-  <si>
-    <t>Markku</t>
-  </si>
-  <si>
-    <t>User Story #2</t>
   </si>
   <si>
     <t>User Story #3</t>
@@ -173,58 +152,80 @@
   <si>
     <t>Sprint Backlog : Sprint 3 (Feb 21 - Feb 25)</t>
   </si>
+  <si>
+    <t>Table Reservation</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Admin Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Table  </t>
+  </si>
+  <si>
+    <t>Manage Reservations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="10">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="26.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="18.0"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="22.0"/>
+      <sz val="22"/>
       <color rgb="FF7F7F7F"/>
       <name val="Century Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;docs-Century Gothic&quot;"/>
     </font>
@@ -234,7 +235,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -274,11 +275,21 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -287,9 +298,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -304,6 +317,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -315,15 +329,22 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -338,125 +359,114 @@
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C6E7"/>
+          <bgColor rgb="FFB4C6E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="1"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB4C6E7"/>
-          <bgColor rgb="FFB4C6E7"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E2F3"/>
-          <bgColor rgb="FFD9E2F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="ListOfFeatures-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="ListOfFeatures-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -465,9 +475,15 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6238875" cy="3552825"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -481,23 +497,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -512,7 +528,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -526,7 +542,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -537,13 +553,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -572,7 +585,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -583,13 +596,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -618,7 +628,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -629,13 +639,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -664,7 +671,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -675,13 +682,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -710,7 +714,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -721,13 +725,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -756,7 +757,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -767,13 +768,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -802,7 +800,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -813,13 +811,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -848,7 +843,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -859,13 +854,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -880,7 +872,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="1" i="1" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="1" i="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -891,7 +883,7 @@
             </a:rPr>
             <a:t>Ask questions during the consultation sessions if you are not sure about how you are proceeding </a:t>
           </a:r>
-          <a:endParaRPr b="1" i="1" sz="1100">
+          <a:endParaRPr sz="1100" b="1" i="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -904,8 +896,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -914,9 +906,15 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5381625" cy="1419225"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -930,23 +928,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent5"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -975,7 +973,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -986,13 +984,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1021,7 +1016,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1050,7 +1045,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1079,7 +1074,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1108,7 +1103,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1119,9 +1114,6 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1131,8 +1123,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1141,9 +1133,15 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6381750" cy="1971675"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="5" name="Shape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1157,23 +1155,23 @@
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1202,7 +1200,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1213,13 +1211,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1248,7 +1243,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1277,7 +1272,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1306,7 +1301,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1335,7 +1330,7 @@
           <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1364,7 +1359,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1393,7 +1388,7 @@
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1404,13 +1399,10 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1421,9 +1413,6 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1434,16 +1423,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:A56" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A2:A56">
   <tableColumns count="1">
-    <tableColumn name="User Stories / List of features" id="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User Stories / List of features"/>
   </tableColumns>
-  <tableStyleInfo name="ListOfFeatures-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ListOfFeatures-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1633,211 +1622,213 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="99.0"/>
-    <col customWidth="1" min="2" max="2" width="0.78"/>
-    <col customWidth="1" min="3" max="4" width="8.56"/>
-    <col customWidth="1" min="5" max="5" width="11.0"/>
-    <col customWidth="1" min="6" max="26" width="8.56"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
+    <col min="2" max="2" width="0.796875" customWidth="1"/>
+    <col min="3" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="33.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="21.75" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="7"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A37" s="5"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A38" s="5"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -2778,613 +2769,611 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.89"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="27.6">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="37.799999999999997">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.6">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="16" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="16" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4357,562 +4346,563 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" activeCellId="2" sqref="A8 A9 A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.89"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="27.6">
+      <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5885,562 +5875,555 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.89"/>
-    <col customWidth="1" min="2" max="2" width="8.22"/>
-    <col customWidth="1" min="3" max="3" width="13.22"/>
-    <col customWidth="1" min="4" max="4" width="10.89"/>
-    <col customWidth="1" min="5" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7413,8 +7396,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
